--- a/500all/speech_level/speeches_CHRG-114hhrg22761.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22761.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400219</t>
   </si>
   <si>
-    <t>Peter T. King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Good morning. The Committee on Homeland Security, Subcommittee on Counterterrorism and Intelligence will come to order.    The subcommittee is meeting today to get testimony from three very distinguished experts regarding terror financing.    I would like to welcome the Ranking Member, Mr. Higgins, and express my appreciation for the witnesses who are here today. I now recognize myself for an opening statement.    In 2005, the 9/11 Commission gave the U.S. Government an A- in combating terrorist financing. As the United States built additional safeguards into the financial system to identify and disrupt the flow of funds to terrorists, we have scored some significant victories. Despite our successes, however, we cannot become complacent. Terrorist organizations have evolved, adopting new strategies and tactics, leveraging social media and encryption technology to recruit the next generation of jihadis and to plot attacks.    Recent terror attacks and plotting have demonstrated terrorist organizations can have global impact at very little costs. While the cost of financing the 9/11 attack was estimated between $400,000 and a half-a-million dollars, AQAP's 2010 cargo bomb plot reportedly cost only $4,200. The January Paris attacks cost only $10,000, and the 2015 Charlie Hebdo attackers allegedly sold counterfeit sneakers and clothing to fund their activity.    As we have hardened our defenses, our enemies have adapted as well, seeking to wear down our resolve with smaller-scale, more frequent plots conducted by U.S. and European citizens who have fought on the battlefields of the Middle East and Asia or have become radicalized to take action at home.    While ISIS' ability to hold territory in Iraq and Syria has provided it with access to resources that have allowed to finance the terror campaign internally, the success of coalition airstrikes targeting ISIS' oil production has forced the group to seek revenue through other activities, including human trafficking, taxing the local population, and robbing antiquities from world-renowned cultural and historical sites.    ISIS facilitators have also encouraged recruits to resort to petty crime to fund travel to Syria and home-grown violent extremism. The alleged head of the Brussels ring that conducted the Paris attacks, doled out cash and presents to wayward youths he recruited as thieves and prospective fighters. They were then trained to target train stations and tourists, stealing luggage, even shoplifting for their cause.    I am eager to hear from today's witnesses how terrorist groups and State sponsors of terrorism have been turning to criminal activities to develop new source of funds, evade detection, and acquire logistical expertise moving and laundering funds, as well as how supporters may be changing tactics to evade current laws and detect illicit funds moving to designated terror groups.    Hezbollah facilitators have been shown to be particularly savvy in circumventing U.S. laws on terrorist financing. The Lebanese Canadian Bank case where bank officers engaged in laundering money from Colombian drug cartels and mixing it with proceeds from used cars bought in the United States, illustrates the sophistication and motivation of Hezbollah to finance its terrorist operations, and the close ties between terrorists and criminal networks. These organizations are highly innovative and motivated, and our Government must remain nimble in the laws and authorities it provides to our intelligence and law enforcement agencies to meet this challenge.    When examined over time, several fundamental lessons emerge. First, a wide range of terrorist organizations have sought to draw upon the wealth and resources of the United States to finance their organizations and activities. Second, just as there is no one type of terrorist, there is no one type of terrorist financier or facilitator. Third, terrorist financiers and facilitators are creative and will seek to exploit vulnerabilities in our society and financial system to further their unlawful aims.    I would like to welcome our expert panel. Your input is critical to the subcommittee's understanding of the current trends in terror financing and how the U.S. Government can build stronger partnerships with the public and private sector to identify funds being diverted to terrorist organizations and disrupt and dismantle the criminal and money-laundering rings.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    I also look forward to hearing from the witnesses who have joined us today regarding your studies and background about this very, very important issue. Hearings like this allows us to stay engaged in the fight against terrorism, engage the dangers terrorist organizations pose in regions throughout the world.    Terrorist organizations such as ISIS, Hezbollah, al-Qaeda, Hamas, to name a few, have all become very sophisticated in financing their terror activities. These financing tools span from criminal enterprises, such as ransoms, drug operations, and human trafficking, to creating charities under false pretenses too, and what may be the most surprising of all, looting and selling of antiquities to gain funds.    Terror financing is of special interest to the committee because, according to reports, in 2014 alone, ISIS obtained revenue of $2 billion and a war chest of nearly $250 million. This surpasses any other terrorist organization's annual earnings. It makes ISIS a financially self-sufficient organization. ISIS' second-largest form of revenue is through the illicit and black market trade of stolen antiques.    In control of a region that has over 5,000 archeological sites, ISIS has destroyed or looted and stolen artifacts that are worth millions of dollars. In the Middle East and North African region, ISIS has caused mass hysteria, wrecking temples in Syria, destroyed the Judeo-Christian tomb of Jonah, and pillaged the Mosul Museum in Iraq. Earlier this year, the United Nations Educational, Scientific, and Cultural Organization's director general declared that the deliberate destruction of cultural heritage in Syria and Iraq is, in fact, a war crime.    Finally, through the less-prominent revenue source for ISIS, kidnapping for ransom has been effectively used by other terror organizations to finance their operations. Al-Qaeda and its affiliates have reportedly received in excess of $125 million through KFRs since 2008, much of it paid by foreign governments. Combating these terror financing operations must be among our top priorities as doing so is a key component to our efforts to counter these groups globally.    I look forward to having a productive conversation with the panelists and, hopefully, learning more about how to halt these terror financing operations.    With that, I yield back.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Shelley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Shelley. Thank you very much, Chairman King, Ranking Member Higgins, and Members of the subcommittee for inviting me.    I have submitted a statement, and so I will supplement it with some of the insights that I have had since I submitted it. I also will highlight a few important points.    The last few weeks, I have spent traveling in Europe speaking with top specialists and advisers on terrorist finance and their homeland security. In fact, I joke that this is a life unlike what most academics have, especially American women, academics. From these conversations, I have a real concern that, especially in Francophone Europe where the attacks have occurred, that is in France and Belgium, there is not real appreciation of the relationship of crime and terrorism.    Despite the fact that, as was mentioned in the opening statements, these terrorist attacks have been funded by petty crime, there is a failure to appreciate the importance of this. What we are finding is that it is the same network that has been involved in all of these terrorist attacks, but is disbursed among France, Belgium, the United Kingdom, and Germany, and maybe elsewhere. They are heavily funded by crime, and these acts are committed primarily by radicalized criminals. Yet there is not a strategy in Europe to deal with this problem.    This is not just a problem for the Europeans, it is a problem for us, because we have Americans traveling in Europe; we have businesses operating internationally in Europe; we have military operations overseas, and yet we are having our allies failing to see this problem with the severity that it is and the consequences that it has and the types of policing and intelligence responses that one needs to this new hybrid threat.    Second, my research that I continue to do under my Carnegie Corporation Fellowship points out the centrality of the problem of illicit trade to terrorist financing. This is a massive problem. It is 8 to 15 percent of the global economy, and, therefore, it is very possible to hide the illicit in the large-scale illicit flows.    Yesterday, the research center that I direct had an event on the Panama Papers with the manager of the Panama Papers and the former head of the tax authority in Colombia, who provided detailed analyses of how much of this illicit money from Colombia, from the drug trade that is run by both criminals and terrorists, wound up in Panama using the mechanisms of trade-based money laundering and hiding illicit trade in larger-scale trade.    So this is a very clear example that we had yesterday of how this problem of trade-based money laundering is supporting terrorism, not just in the Middle East, but on our back door, and paid for by the drug payments that come from the United States and move back to Colombia.    So, therefore, I think we need to pay much more attention to the role of illicit trade. I am glad that we are having a presentation on antiquities on this panel, because that is one form of illicit trade that is used to fund terrorism and intersects with many other forms of illicit trade, as Ms. Lehr and I discussed before the opening of the hearing.    But this illicit trade does not exist in a vacuum. It is supported by banks; it is supported by law firms; it is supported by professional services that write contracts, that develop contracts, and help mask the illicit trade. This is one thing that the Panama Papers has also revealed, is that there are a lot of high-level facilitators. Even though there are not many people mentioned in the Panama Papers that are American, many of the facilitators are based in the United States. Therefore, we need to be paying much more attention to the members of the legitimate community that are either inadvertently or sometimes knowingly facilitating illicit trade. We have seen this in recent revelations of Deutsche Bank, we have seen it with HSBC, and this continues to remain a problem.    I also want to mention three foci areas of illicit trade that I think of as relatively new that are not being paid enough attention to. For example, there is now a large illicit trade in gold, some of this coming out of Colombia. One of the things that we see with terrorist groups is they have enormous flexibility and ability to switch between one area of illicit activity and another. So the revenues for the FARC in Colombia are now estimated to be greater from the illicit gold trade than from the narcotics trade.    The second type of new trade I wanted to discuss is that of the kidney trade. For quite a number of years, there has been a trade in Egypt in which wealthy foreigners come and are operated on in hospitals obtaining kidneys that they cannot legitimately obtain in the United States or Western Europe. Now there is a new source of providers of these kidneys, according to research with kidney donors and purchasers, is that migrants from the crisis in Iraq and Syria want to pay smugglers, but they don't have the money to pay the smugglers. So there are facilitators in Turkey working among the refugee communities that find individuals ready to sell their kidneys, who will then travel to Egypt, sell their kidneys, and pay the smugglers.    What makes this a problem of terrorist finance is that it appears that this trade has become so lucrative that groups like al-Nusrah are intimidating the doctors who have traditionally performed this trade and are taking many of the profits out of this trade. But what has changed is that the purchasers of the kidneys are no longer bringing suitcases of dollars to Egypt but are putting the money through wire transfers, transfers to travel agencies into bank accounts in Western Europe, France, the United Kingdom, and Germany, which gives them a new funding source to draw on in western banking centers but does not require transfers from the Middle East.    The last area that I want to bring up as a new area of concern is what I call a problem of possibly dual-use crime, which is the growing trade of illicit pesticides, something that has really emerged on the international markets in the last 7, 8 years.    I was recently on this European trip at a meeting of the OECD on illicit trade, and one of the Polish specialists was talking about the confiscation of huge amounts of these dangerous pesticides in northeast Europe. Europol is now estimating that 25 percent of the pesticides used in northeast in Europe are illegal. The general figure is 10 percent in Europe, and it is about a third of the market in a major food exporter like India. It is also a problem in China.    So we are looking at something that is both a health hazard, as we are an importer of food. We also have some of these illegal pesticides entering into our markets but not in as large a scale as elsewhere, but there is also the possibility that as this phenomenon increases, it can be used by terrorists to introduce dangerous chemicals and harm health. So this is something that I believe deserves more attention.    So what do I recommend that we do? We are still not focusing sufficiently on illicit trade as a source of terrorist financing, despite the fact that trade is an essential element of the Middle East economy and is, as I have just mentioned, has been revealed as being a central part of financing in the trade that we have in Colombia and Latin America. We need to focus on new emerging areas and not just the kinds of trade that we have been thinking about before.    As I talked about before, we need to be expanding our efforts in the United States to be focusing on the relationship of crime and terrorism and how these phenomena are linked. In our attaches that work for homeland security, we need to be developing this greater appreciation of this phenomena through our insights and lessons learned. This needs to especially be done with our European colleagues who have faced such major terrorist challenges lately and have not yet reoriented their policing or their intelligence to focus on this threat in a new way.    Because so much of this illicit trade is connected to the business world, we need to establish much more of public-private partnerships with companies that are aware of this illicit trade, with shipping companies, transport companies, and others. Much of this trade is going on in the dark Web.    There is research that is going on today on the internet, the deep Web, and the dark Web, but not enough that I think is accessible on the interaction of the crime and the terrorist funding that goes on between the dark Web and the deep Web.    We had a seminar on this at our research center about 6 weeks ago. We had 120 people in the room, many of them from law enforcement, many of them that work in homeland security, and there is a desperate need for information and insights on how to understand and focus on this problem. We must continue to address the money laundering that is contributing to the illicit trade and also deriving from the illicit trade. We must work much more on the beneficial ownership between valuable properties, shell corporations, and understand the challenges we face in not having more transparency in our financial system.    Thank you.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t xml:space="preserve">    Mr. King. Thank you, Doctor, very much for your testimony.    Our next witness is Deborah Lehr. She is the chairman of the Antiquities Coalition, an organization which she launched to work with governments across the Middle East to fight against antiquities trafficking and its use in financing terrorism. She is also CEO and founding partner of Basilinna--did I pronounce that correctly? Okay.--a strategic consulting firm focused on China and the Middle East. She serves as a senior fellow at the Paulson Institute, a not-for-profit chaired by former Treasury Secretary, Hank Paulson.    Ms. Lehr also serves on a number of prestigious board and advisory councils, including National Geographic and the board of the Archeological Institute of America.    Ms. Lehr, thank you for being here today, and we look forward to your testimony. You are recognized.</t>
   </si>
   <si>
-    <t>Lehr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lehr. Thank you, Chairman King, Ranking Member Higgins. We really appreciate the opportunity to testify before the subcommittee this morning. The Antiquities Coalition commends the subcommittee for its focus on the cutting off of financing for terrorist organizations, particularly for antiquities trafficking.    Culture has very clearly become a weapon of war and a fundraising tool for violent extremist organizations across the Middle East and northern Africa. Certainly, antiquities looting has been happening ever since there was buried treasure, but not since World War II has it happened on this scale. Millions of archeological sites, historic and religious sites are being threatened by organized plunder by ISIL. These attacks are more than a destruction of heritage. They are the eradication of its shared history, the elimination of economic opportunity. They are a crime of war. They are precursors to genocide and they fund terrorism.    The Abu Sayyaf raid by U.S. special forces confirmed how the extremist group has institutionalized the trafficking and destruction of antiquities. It has created its own ministry of antiquities and it uses the sales of permits to promote antiquities looting and illicit excavations.    ISIL is making significant profits from this. Our records that were seized show that in just a 3-month period, they had raised $1.25 million or annualized $5 million. While not on the scale of oil revenues, as was indicated by the Ranking Member earlier, if you think about what the costs are to fund some of these terrorist activities, that money goes a really long way, particularly when you think there is a virtual limitless supply of these antiquities across the MENA region.    ISIL use these priceless antiquities as just a commodity to be plucked from the ground for profit. The organized looting and trafficking of antiquities, or as we call it cultural racketeering, is a criminal industry that spans the globe. All countries with a past worth protecting are now at risk, but countries in crisis are most vulnerable, particularly during times of war.    Nowhere has heritage suffered more than in Syria and Iraq. The list of destruction and plundering is long: Palmyra, the Muslim Museum, Nineveh, and hundreds of others, including historical sites that are meaningful to the foundations of Islam, Christianity, and Judaism.    What is the size of this illegal trade? It is very difficult to determine the size of a legitimate antiquities market, let alone the illicit. So my organization has sponsored research by the University of Chicago to calculate, for the first time ever, the size of the losses in Iraq and Syria through algorithms that could be applied for other countries. We had commissioned Dr. Sarah Parcak, who was this year's TED Prize winner to do the same in Egypt, where she calculated that over a 3-year period the losses were potentially as high as $3 billion.    Yet what we do know are what are the declared trade figures of the imports into the United States of HTF tariff line 97, which is for antiques over 100 years old.    The United States accounts for 43 percent of the global art market. We are the largest in the world. Last year, our No. 1 import from Syria, accounting for 40 percent of our total imports, were antiquities. Even though overall imports from Syria have dropped precipitously from $430 million in 2010 to $12.4 million last year, the rate of antiquities has continued to increase--rate of antiquities imports has continued to increase. All of these antiquities came through one port, the customs port of New York. For Iraq, after oil, antiquities are the largest import from that country.    Since the Arab Spring in 2011, we have seen, from 5 countries in the MENA area, an average increase overall in antiquities of 90 percent. For Turkey, it's been up by 80 percent; Egypt, 55; Syria, 134; Iraq, 492; and Lebanon, 58. Why Turkey and Lebanon? Because they are the major transshipment points for antiquities coming out of Iraq and Syria.    So there is much that can be done. In April, the Antiquities Coalition released a task force report with recommendations to promote very practical solutions to this growing crisis and to serve as an on-going resource for policymakers. It was recommendations for the U.S. Government, international institutions, and the art market, and just one in a series of reports that we hope to release, particularly the next one focused on what source countries can do.    In addition, we fully support the recommendations in H.R. 2285 focused on ICE and CBP. These organizations are on the front line of our war against cultural racketeering and protecting our own market.    But other considerations for this subcommittee to think about: One is there needs to be an overall coordinator within the United States Government. We believe that that person should be at the National Security Council, that they should be able to coordinate through all the institutions of the U.S. Government and work with subcommittees like this one. The focus of law enforcement should be on criminal prosecutions, not just on seizing the antiquities and repatriating them. The trade should be restricted to designated ports. This has been done in the case of wildlife. There is no reason it can't be done in the case of antiquities.    One of the things that the earlier legislation promotes, and we strongly support, is as the majority of antiquities are coming in through New York, there is a big difference between the quality of the seizures that are happening in Newark, which has done a tremendous amount of work and the authorities there are highly trained, and JFK. We think an additional focus on just some practical aspects of training at JFK could go a long way toward stopping the United States becoming the principal designation, particularly since most of the art market is based in New York City.    Raising awareness at ports of entry, just having Border Patrol work at various ports of entry to recognize that the import of these antiquities is illegal. The Department of Homeland Security could be supportive of what we hope will be a more active role in the State Department in negotiating cultural MOUs with countries in crisis. These cultural MOUs serve as the legal basis to give ICE the ability to close the market to antiquities coming into our country. There is not a single one of them with any country in the Middle East at the moment.    The legislation that was passed recently that stops the import of antiquities into Syria builds on what was done with Iraq, but both of those have been legislated. We need to see them with Egypt, with some of the transshipment countries, and others to really help protect our own market from being a source of terrorist financing.    It is important we stop American dollars from funding conflict in crime through cultural racketeering. This is a problem that didn't start with ISIL and it is not going to end with it. So it is necessary to create a framework for combating the illicit trade and antiquities globally.    I thank the subcommittee for your work, and I thank you for the opportunity to testify before you today. I am happy to answer any questions. Thank you.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t xml:space="preserve">    Mr. King. Thank you, Doctor.    Dr. Schanzer, you mentioned in your written testimony that the Treasury Department has not made a domestic designation of a charity for supporting terrorism for 2009. Now, does that mean that illegal fundraising has stopped, or has there been a shift in U.S. policy? Any comment you can make on that, I appreciate it.</t>
   </si>
   <si>
-    <t>Schanzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schanzer. Sure. Mr. Chairman, in short, the reason for this halt is still unclear. I think on the one hand, we can certainly say that the environment has become a restrictive one for charities that would like to fundraise on American soil. The successes that we have had, certainly since the first few years after 9/11, may have served as a deterrent for those who would want to fundraise for terrorists on American soil.    On the other hand, I find it very hard to believe that there is not one single charity operating here in the United States and actively fundraising for a terrorist organization, whether it would be Hamas, Hezbollah, al-Qaeda, or the Islamic State. So I do wonder whether this is a political decision that has been made by the White House, whether it has been a bureaucratic one made by the Treasury Department as the office of terrorism and financial intelligence has shifted its priorities. So it may be that the FBI is focused on this squarely.    The issue that I would raise, though, is whether the FBI has enough manpower and has enough at its disposal in order to counter this challenge. In other words, we know that the FBI is squarely focused on trying to defend the homeland day in and day out, but they are looking at threats from ISIS or from lone-wolf terrorists or from al-Qaeda, and they may be less inclined to go after some of what they might deem as small fries, smaller charities that are fundraising for organizations that may not pose a direct threat to the homeland.    So I think there are some interesting bureaucratic questions to ask the Federal Government right now, to ask the White House, and it could be the function of this subcommittee to do so.</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.    Ms. Lehr, I want to focus some of my questions on you for a moment, if I may. I don't think you can underestimate the importance of the antiquities black market. Before I came to Congress, I was a Federal prosecutor. Remarkably, we had one such case in our district in Syracuse, New York. It happened because we found thousands upon thousands of tablets that had ended up at Cornell University. They ended up there through an antiquities dealer in New York City. Going through that case, it was remarkable to me to see how difficult it was to do any sort of a criminal prosecution and how difficult it was just to go through the process of repatriating these assets back to Iraq.    The tablets were stolen. They were all small tablets, about 4,000 years old, that really chronicled Iraq's history. I don't know how you put a value on that. But I know that this dealer in New York City paid a substantial amount of money to get those. He kept some there and some were donated to Cornell. They all ultimately have been back.    But, you know, I saw--I want to talk to you more about that. Because I think, you know, what ISIS has done in Palmyra and these other places, we don't know what they have done with those antiquities. But I do know there is a voracious appetite for them on the international market.    So with that in mind, and that as a backdrop, I want to ask you a couple of questions. What can we do to tweak the laws from a criminal standpoint to try and use these--to better prosecute--better investigate and prosecute these antiquities laws? Also, probe with you after that a little bit more about why you think it is necessary to have someone on the National Security Council involved on this as opposed to the Department of Justice.</t>
   </si>
   <si>
@@ -238,9 +220,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. I might comment that I am just days back from traveling through northern Africa in particular, and I must tell you that our efforts at striking and targeting oil reserves and the revenues they are getting from there has really been effective and is being extended, actually, because of its effectiveness. So I have seen how we have been successful in that regard.    I also am aware that, you know, in Syria and Iraq how the area is shrinking and that will affect taxation. But we are going to see more of an emphasis because of this effectiveness, I think, on ransoming and on antiquities because of the way we are shrinking the other alternatives, I believe.    So I want to thank Ms. Lehr, for the work that you have done with the #CultureUnderThreat Task Force and the Antiquities Coalition. It is important work in many respects. But I would ask you to talk about what we can do to have more bilateral agreements with other countries. Because, again, as we begin--and we have a lot of work still to do. As we begin putting up barriers here, they will seek other venues. So how can we work, in your opinion, to extend those agreements?</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Chairman King, Ranking Member Higgins, I want to thank you all for this, putting on this hearing. It is one of the more illuminating hearings I have been to this year.    My first question is to Ms. Lehr. Can you--you mentioned that organized plunder by ISIS, you said it is generating $1 million a year or $5 million a year?</t>
   </si>
   <si>
@@ -284,9 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Yeah, I saw.</t>
-  </si>
-  <si>
-    <t>Lehr [contiuing]</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lehr [contiuing]. Into the record to show the process. Receipts for 3 months were $1.5 million.</t>
@@ -724,11 +697,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -750,11 +721,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -774,13 +743,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -802,11 +769,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -828,11 +793,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -852,13 +815,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -880,11 +841,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -906,11 +865,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -930,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -956,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -984,11 +937,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1008,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1036,11 +985,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1060,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1088,11 +1033,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1112,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1138,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1164,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1190,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1216,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1242,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1268,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1294,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1320,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1346,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1372,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1398,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1426,11 +1345,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1450,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1478,11 +1393,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1502,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1528,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1554,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1580,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1606,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
         <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1632,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1658,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1684,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1710,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1736,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1762,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1788,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1814,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1840,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1866,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1892,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1918,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1944,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1970,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1996,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2022,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2050,11 +1921,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2074,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2100,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2126,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2152,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2178,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2206,11 +2065,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2230,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2258,11 +2113,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2282,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2310,11 +2161,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2334,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2360,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2386,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2412,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2438,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2464,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2490,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
-      <c r="H70" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2516,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2542,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2568,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2594,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2620,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2646,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2674,11 +2497,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2698,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2726,11 +2545,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22761.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22761.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400219</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Good morning. The Committee on Homeland Security, Subcommittee on Counterterrorism and Intelligence will come to order.    The subcommittee is meeting today to get testimony from three very distinguished experts regarding terror financing.    I would like to welcome the Ranking Member, Mr. Higgins, and express my appreciation for the witnesses who are here today. I now recognize myself for an opening statement.    In 2005, the 9/11 Commission gave the U.S. Government an A- in combating terrorist financing. As the United States built additional safeguards into the financial system to identify and disrupt the flow of funds to terrorists, we have scored some significant victories. Despite our successes, however, we cannot become complacent. Terrorist organizations have evolved, adopting new strategies and tactics, leveraging social media and encryption technology to recruit the next generation of jihadis and to plot attacks.    Recent terror attacks and plotting have demonstrated terrorist organizations can have global impact at very little costs. While the cost of financing the 9/11 attack was estimated between $400,000 and a half-a-million dollars, AQAP's 2010 cargo bomb plot reportedly cost only $4,200. The January Paris attacks cost only $10,000, and the 2015 Charlie Hebdo attackers allegedly sold counterfeit sneakers and clothing to fund their activity.    As we have hardened our defenses, our enemies have adapted as well, seeking to wear down our resolve with smaller-scale, more frequent plots conducted by U.S. and European citizens who have fought on the battlefields of the Middle East and Asia or have become radicalized to take action at home.    While ISIS' ability to hold territory in Iraq and Syria has provided it with access to resources that have allowed to finance the terror campaign internally, the success of coalition airstrikes targeting ISIS' oil production has forced the group to seek revenue through other activities, including human trafficking, taxing the local population, and robbing antiquities from world-renowned cultural and historical sites.    ISIS facilitators have also encouraged recruits to resort to petty crime to fund travel to Syria and home-grown violent extremism. The alleged head of the Brussels ring that conducted the Paris attacks, doled out cash and presents to wayward youths he recruited as thieves and prospective fighters. They were then trained to target train stations and tourists, stealing luggage, even shoplifting for their cause.    I am eager to hear from today's witnesses how terrorist groups and State sponsors of terrorism have been turning to criminal activities to develop new source of funds, evade detection, and acquire logistical expertise moving and laundering funds, as well as how supporters may be changing tactics to evade current laws and detect illicit funds moving to designated terror groups.    Hezbollah facilitators have been shown to be particularly savvy in circumventing U.S. laws on terrorist financing. The Lebanese Canadian Bank case where bank officers engaged in laundering money from Colombian drug cartels and mixing it with proceeds from used cars bought in the United States, illustrates the sophistication and motivation of Hezbollah to finance its terrorist operations, and the close ties between terrorists and criminal networks. These organizations are highly innovative and motivated, and our Government must remain nimble in the laws and authorities it provides to our intelligence and law enforcement agencies to meet this challenge.    When examined over time, several fundamental lessons emerge. First, a wide range of terrorist organizations have sought to draw upon the wealth and resources of the United States to finance their organizations and activities. Second, just as there is no one type of terrorist, there is no one type of terrorist financier or facilitator. Third, terrorist financiers and facilitators are creative and will seek to exploit vulnerabilities in our society and financial system to further their unlawful aims.    I would like to welcome our expert panel. Your input is critical to the subcommittee's understanding of the current trends in terror financing and how the U.S. Government can build stronger partnerships with the public and private sector to identify funds being diverted to terrorist organizations and disrupt and dismantle the criminal and money-laundering rings.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    I also look forward to hearing from the witnesses who have joined us today regarding your studies and background about this very, very important issue. Hearings like this allows us to stay engaged in the fight against terrorism, engage the dangers terrorist organizations pose in regions throughout the world.    Terrorist organizations such as ISIS, Hezbollah, al-Qaeda, Hamas, to name a few, have all become very sophisticated in financing their terror activities. These financing tools span from criminal enterprises, such as ransoms, drug operations, and human trafficking, to creating charities under false pretenses too, and what may be the most surprising of all, looting and selling of antiquities to gain funds.    Terror financing is of special interest to the committee because, according to reports, in 2014 alone, ISIS obtained revenue of $2 billion and a war chest of nearly $250 million. This surpasses any other terrorist organization's annual earnings. It makes ISIS a financially self-sufficient organization. ISIS' second-largest form of revenue is through the illicit and black market trade of stolen antiques.    In control of a region that has over 5,000 archeological sites, ISIS has destroyed or looted and stolen artifacts that are worth millions of dollars. In the Middle East and North African region, ISIS has caused mass hysteria, wrecking temples in Syria, destroyed the Judeo-Christian tomb of Jonah, and pillaged the Mosul Museum in Iraq. Earlier this year, the United Nations Educational, Scientific, and Cultural Organization's director general declared that the deliberate destruction of cultural heritage in Syria and Iraq is, in fact, a war crime.    Finally, through the less-prominent revenue source for ISIS, kidnapping for ransom has been effectively used by other terror organizations to finance their operations. Al-Qaeda and its affiliates have reportedly received in excess of $125 million through KFRs since 2008, much of it paid by foreign governments. Combating these terror financing operations must be among our top priorities as doing so is a key component to our efforts to counter these groups globally.    I look forward to having a productive conversation with the panelists and, hopefully, learning more about how to halt these terror financing operations.    With that, I yield back.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Shelley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Shelley. Thank you very much, Chairman King, Ranking Member Higgins, and Members of the subcommittee for inviting me.    I have submitted a statement, and so I will supplement it with some of the insights that I have had since I submitted it. I also will highlight a few important points.    The last few weeks, I have spent traveling in Europe speaking with top specialists and advisers on terrorist finance and their homeland security. In fact, I joke that this is a life unlike what most academics have, especially American women, academics. From these conversations, I have a real concern that, especially in Francophone Europe where the attacks have occurred, that is in France and Belgium, there is not real appreciation of the relationship of crime and terrorism.    Despite the fact that, as was mentioned in the opening statements, these terrorist attacks have been funded by petty crime, there is a failure to appreciate the importance of this. What we are finding is that it is the same network that has been involved in all of these terrorist attacks, but is disbursed among France, Belgium, the United Kingdom, and Germany, and maybe elsewhere. They are heavily funded by crime, and these acts are committed primarily by radicalized criminals. Yet there is not a strategy in Europe to deal with this problem.    This is not just a problem for the Europeans, it is a problem for us, because we have Americans traveling in Europe; we have businesses operating internationally in Europe; we have military operations overseas, and yet we are having our allies failing to see this problem with the severity that it is and the consequences that it has and the types of policing and intelligence responses that one needs to this new hybrid threat.    Second, my research that I continue to do under my Carnegie Corporation Fellowship points out the centrality of the problem of illicit trade to terrorist financing. This is a massive problem. It is 8 to 15 percent of the global economy, and, therefore, it is very possible to hide the illicit in the large-scale illicit flows.    Yesterday, the research center that I direct had an event on the Panama Papers with the manager of the Panama Papers and the former head of the tax authority in Colombia, who provided detailed analyses of how much of this illicit money from Colombia, from the drug trade that is run by both criminals and terrorists, wound up in Panama using the mechanisms of trade-based money laundering and hiding illicit trade in larger-scale trade.    So this is a very clear example that we had yesterday of how this problem of trade-based money laundering is supporting terrorism, not just in the Middle East, but on our back door, and paid for by the drug payments that come from the United States and move back to Colombia.    So, therefore, I think we need to pay much more attention to the role of illicit trade. I am glad that we are having a presentation on antiquities on this panel, because that is one form of illicit trade that is used to fund terrorism and intersects with many other forms of illicit trade, as Ms. Lehr and I discussed before the opening of the hearing.    But this illicit trade does not exist in a vacuum. It is supported by banks; it is supported by law firms; it is supported by professional services that write contracts, that develop contracts, and help mask the illicit trade. This is one thing that the Panama Papers has also revealed, is that there are a lot of high-level facilitators. Even though there are not many people mentioned in the Panama Papers that are American, many of the facilitators are based in the United States. Therefore, we need to be paying much more attention to the members of the legitimate community that are either inadvertently or sometimes knowingly facilitating illicit trade. We have seen this in recent revelations of Deutsche Bank, we have seen it with HSBC, and this continues to remain a problem.    I also want to mention three foci areas of illicit trade that I think of as relatively new that are not being paid enough attention to. For example, there is now a large illicit trade in gold, some of this coming out of Colombia. One of the things that we see with terrorist groups is they have enormous flexibility and ability to switch between one area of illicit activity and another. So the revenues for the FARC in Colombia are now estimated to be greater from the illicit gold trade than from the narcotics trade.    The second type of new trade I wanted to discuss is that of the kidney trade. For quite a number of years, there has been a trade in Egypt in which wealthy foreigners come and are operated on in hospitals obtaining kidneys that they cannot legitimately obtain in the United States or Western Europe. Now there is a new source of providers of these kidneys, according to research with kidney donors and purchasers, is that migrants from the crisis in Iraq and Syria want to pay smugglers, but they don't have the money to pay the smugglers. So there are facilitators in Turkey working among the refugee communities that find individuals ready to sell their kidneys, who will then travel to Egypt, sell their kidneys, and pay the smugglers.    What makes this a problem of terrorist finance is that it appears that this trade has become so lucrative that groups like al-Nusrah are intimidating the doctors who have traditionally performed this trade and are taking many of the profits out of this trade. But what has changed is that the purchasers of the kidneys are no longer bringing suitcases of dollars to Egypt but are putting the money through wire transfers, transfers to travel agencies into bank accounts in Western Europe, France, the United Kingdom, and Germany, which gives them a new funding source to draw on in western banking centers but does not require transfers from the Middle East.    The last area that I want to bring up as a new area of concern is what I call a problem of possibly dual-use crime, which is the growing trade of illicit pesticides, something that has really emerged on the international markets in the last 7, 8 years.    I was recently on this European trip at a meeting of the OECD on illicit trade, and one of the Polish specialists was talking about the confiscation of huge amounts of these dangerous pesticides in northeast Europe. Europol is now estimating that 25 percent of the pesticides used in northeast in Europe are illegal. The general figure is 10 percent in Europe, and it is about a third of the market in a major food exporter like India. It is also a problem in China.    So we are looking at something that is both a health hazard, as we are an importer of food. We also have some of these illegal pesticides entering into our markets but not in as large a scale as elsewhere, but there is also the possibility that as this phenomenon increases, it can be used by terrorists to introduce dangerous chemicals and harm health. So this is something that I believe deserves more attention.    So what do I recommend that we do? We are still not focusing sufficiently on illicit trade as a source of terrorist financing, despite the fact that trade is an essential element of the Middle East economy and is, as I have just mentioned, has been revealed as being a central part of financing in the trade that we have in Colombia and Latin America. We need to focus on new emerging areas and not just the kinds of trade that we have been thinking about before.    As I talked about before, we need to be expanding our efforts in the United States to be focusing on the relationship of crime and terrorism and how these phenomena are linked. In our attaches that work for homeland security, we need to be developing this greater appreciation of this phenomena through our insights and lessons learned. This needs to especially be done with our European colleagues who have faced such major terrorist challenges lately and have not yet reoriented their policing or their intelligence to focus on this threat in a new way.    Because so much of this illicit trade is connected to the business world, we need to establish much more of public-private partnerships with companies that are aware of this illicit trade, with shipping companies, transport companies, and others. Much of this trade is going on in the dark Web.    There is research that is going on today on the internet, the deep Web, and the dark Web, but not enough that I think is accessible on the interaction of the crime and the terrorist funding that goes on between the dark Web and the deep Web.    We had a seminar on this at our research center about 6 weeks ago. We had 120 people in the room, many of them from law enforcement, many of them that work in homeland security, and there is a desperate need for information and insights on how to understand and focus on this problem. We must continue to address the money laundering that is contributing to the illicit trade and also deriving from the illicit trade. We must work much more on the beneficial ownership between valuable properties, shell corporations, and understand the challenges we face in not having more transparency in our financial system.    Thank you.</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t xml:space="preserve">    Mr. King. Thank you, Doctor, very much for your testimony.    Our next witness is Deborah Lehr. She is the chairman of the Antiquities Coalition, an organization which she launched to work with governments across the Middle East to fight against antiquities trafficking and its use in financing terrorism. She is also CEO and founding partner of Basilinna--did I pronounce that correctly? Okay.--a strategic consulting firm focused on China and the Middle East. She serves as a senior fellow at the Paulson Institute, a not-for-profit chaired by former Treasury Secretary, Hank Paulson.    Ms. Lehr also serves on a number of prestigious board and advisory councils, including National Geographic and the board of the Archeological Institute of America.    Ms. Lehr, thank you for being here today, and we look forward to your testimony. You are recognized.</t>
   </si>
   <si>
+    <t>Lehr</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lehr. Thank you, Chairman King, Ranking Member Higgins. We really appreciate the opportunity to testify before the subcommittee this morning. The Antiquities Coalition commends the subcommittee for its focus on the cutting off of financing for terrorist organizations, particularly for antiquities trafficking.    Culture has very clearly become a weapon of war and a fundraising tool for violent extremist organizations across the Middle East and northern Africa. Certainly, antiquities looting has been happening ever since there was buried treasure, but not since World War II has it happened on this scale. Millions of archeological sites, historic and religious sites are being threatened by organized plunder by ISIL. These attacks are more than a destruction of heritage. They are the eradication of its shared history, the elimination of economic opportunity. They are a crime of war. They are precursors to genocide and they fund terrorism.    The Abu Sayyaf raid by U.S. special forces confirmed how the extremist group has institutionalized the trafficking and destruction of antiquities. It has created its own ministry of antiquities and it uses the sales of permits to promote antiquities looting and illicit excavations.    ISIL is making significant profits from this. Our records that were seized show that in just a 3-month period, they had raised $1.25 million or annualized $5 million. While not on the scale of oil revenues, as was indicated by the Ranking Member earlier, if you think about what the costs are to fund some of these terrorist activities, that money goes a really long way, particularly when you think there is a virtual limitless supply of these antiquities across the MENA region.    ISIL use these priceless antiquities as just a commodity to be plucked from the ground for profit. The organized looting and trafficking of antiquities, or as we call it cultural racketeering, is a criminal industry that spans the globe. All countries with a past worth protecting are now at risk, but countries in crisis are most vulnerable, particularly during times of war.    Nowhere has heritage suffered more than in Syria and Iraq. The list of destruction and plundering is long: Palmyra, the Muslim Museum, Nineveh, and hundreds of others, including historical sites that are meaningful to the foundations of Islam, Christianity, and Judaism.    What is the size of this illegal trade? It is very difficult to determine the size of a legitimate antiquities market, let alone the illicit. So my organization has sponsored research by the University of Chicago to calculate, for the first time ever, the size of the losses in Iraq and Syria through algorithms that could be applied for other countries. We had commissioned Dr. Sarah Parcak, who was this year's TED Prize winner to do the same in Egypt, where she calculated that over a 3-year period the losses were potentially as high as $3 billion.    Yet what we do know are what are the declared trade figures of the imports into the United States of HTF tariff line 97, which is for antiques over 100 years old.    The United States accounts for 43 percent of the global art market. We are the largest in the world. Last year, our No. 1 import from Syria, accounting for 40 percent of our total imports, were antiquities. Even though overall imports from Syria have dropped precipitously from $430 million in 2010 to $12.4 million last year, the rate of antiquities has continued to increase--rate of antiquities imports has continued to increase. All of these antiquities came through one port, the customs port of New York. For Iraq, after oil, antiquities are the largest import from that country.    Since the Arab Spring in 2011, we have seen, from 5 countries in the MENA area, an average increase overall in antiquities of 90 percent. For Turkey, it's been up by 80 percent; Egypt, 55; Syria, 134; Iraq, 492; and Lebanon, 58. Why Turkey and Lebanon? Because they are the major transshipment points for antiquities coming out of Iraq and Syria.    So there is much that can be done. In April, the Antiquities Coalition released a task force report with recommendations to promote very practical solutions to this growing crisis and to serve as an on-going resource for policymakers. It was recommendations for the U.S. Government, international institutions, and the art market, and just one in a series of reports that we hope to release, particularly the next one focused on what source countries can do.    In addition, we fully support the recommendations in H.R. 2285 focused on ICE and CBP. These organizations are on the front line of our war against cultural racketeering and protecting our own market.    But other considerations for this subcommittee to think about: One is there needs to be an overall coordinator within the United States Government. We believe that that person should be at the National Security Council, that they should be able to coordinate through all the institutions of the U.S. Government and work with subcommittees like this one. The focus of law enforcement should be on criminal prosecutions, not just on seizing the antiquities and repatriating them. The trade should be restricted to designated ports. This has been done in the case of wildlife. There is no reason it can't be done in the case of antiquities.    One of the things that the earlier legislation promotes, and we strongly support, is as the majority of antiquities are coming in through New York, there is a big difference between the quality of the seizures that are happening in Newark, which has done a tremendous amount of work and the authorities there are highly trained, and JFK. We think an additional focus on just some practical aspects of training at JFK could go a long way toward stopping the United States becoming the principal designation, particularly since most of the art market is based in New York City.    Raising awareness at ports of entry, just having Border Patrol work at various ports of entry to recognize that the import of these antiquities is illegal. The Department of Homeland Security could be supportive of what we hope will be a more active role in the State Department in negotiating cultural MOUs with countries in crisis. These cultural MOUs serve as the legal basis to give ICE the ability to close the market to antiquities coming into our country. There is not a single one of them with any country in the Middle East at the moment.    The legislation that was passed recently that stops the import of antiquities into Syria builds on what was done with Iraq, but both of those have been legislated. We need to see them with Egypt, with some of the transshipment countries, and others to really help protect our own market from being a source of terrorist financing.    It is important we stop American dollars from funding conflict in crime through cultural racketeering. This is a problem that didn't start with ISIL and it is not going to end with it. So it is necessary to create a framework for combating the illicit trade and antiquities globally.    I thank the subcommittee for your work, and I thank you for the opportunity to testify before you today. I am happy to answer any questions. Thank you.</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t xml:space="preserve">    Mr. King. Thank you, Doctor.    Dr. Schanzer, you mentioned in your written testimony that the Treasury Department has not made a domestic designation of a charity for supporting terrorism for 2009. Now, does that mean that illegal fundraising has stopped, or has there been a shift in U.S. policy? Any comment you can make on that, I appreciate it.</t>
   </si>
   <si>
+    <t>Schanzer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schanzer. Sure. Mr. Chairman, in short, the reason for this halt is still unclear. I think on the one hand, we can certainly say that the environment has become a restrictive one for charities that would like to fundraise on American soil. The successes that we have had, certainly since the first few years after 9/11, may have served as a deterrent for those who would want to fundraise for terrorists on American soil.    On the other hand, I find it very hard to believe that there is not one single charity operating here in the United States and actively fundraising for a terrorist organization, whether it would be Hamas, Hezbollah, al-Qaeda, or the Islamic State. So I do wonder whether this is a political decision that has been made by the White House, whether it has been a bureaucratic one made by the Treasury Department as the office of terrorism and financial intelligence has shifted its priorities. So it may be that the FBI is focused on this squarely.    The issue that I would raise, though, is whether the FBI has enough manpower and has enough at its disposal in order to counter this challenge. In other words, we know that the FBI is squarely focused on trying to defend the homeland day in and day out, but they are looking at threats from ISIS or from lone-wolf terrorists or from al-Qaeda, and they may be less inclined to go after some of what they might deem as small fries, smaller charities that are fundraising for organizations that may not pose a direct threat to the homeland.    So I think there are some interesting bureaucratic questions to ask the Federal Government right now, to ask the White House, and it could be the function of this subcommittee to do so.</t>
   </si>
   <si>
@@ -151,6 +175,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.    Ms. Lehr, I want to focus some of my questions on you for a moment, if I may. I don't think you can underestimate the importance of the antiquities black market. Before I came to Congress, I was a Federal prosecutor. Remarkably, we had one such case in our district in Syracuse, New York. It happened because we found thousands upon thousands of tablets that had ended up at Cornell University. They ended up there through an antiquities dealer in New York City. Going through that case, it was remarkable to me to see how difficult it was to do any sort of a criminal prosecution and how difficult it was just to go through the process of repatriating these assets back to Iraq.    The tablets were stolen. They were all small tablets, about 4,000 years old, that really chronicled Iraq's history. I don't know how you put a value on that. But I know that this dealer in New York City paid a substantial amount of money to get those. He kept some there and some were donated to Cornell. They all ultimately have been back.    But, you know, I saw--I want to talk to you more about that. Because I think, you know, what ISIS has done in Palmyra and these other places, we don't know what they have done with those antiquities. But I do know there is a voracious appetite for them on the international market.    So with that in mind, and that as a backdrop, I want to ask you a couple of questions. What can we do to tweak the laws from a criminal standpoint to try and use these--to better prosecute--better investigate and prosecute these antiquities laws? Also, probe with you after that a little bit more about why you think it is necessary to have someone on the National Security Council involved on this as opposed to the Department of Justice.</t>
   </si>
   <si>
@@ -220,6 +250,12 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. I might comment that I am just days back from traveling through northern Africa in particular, and I must tell you that our efforts at striking and targeting oil reserves and the revenues they are getting from there has really been effective and is being extended, actually, because of its effectiveness. So I have seen how we have been successful in that regard.    I also am aware that, you know, in Syria and Iraq how the area is shrinking and that will affect taxation. But we are going to see more of an emphasis because of this effectiveness, I think, on ransoming and on antiquities because of the way we are shrinking the other alternatives, I believe.    So I want to thank Ms. Lehr, for the work that you have done with the #CultureUnderThreat Task Force and the Antiquities Coalition. It is important work in many respects. But I would ask you to talk about what we can do to have more bilateral agreements with other countries. Because, again, as we begin--and we have a lot of work still to do. As we begin putting up barriers here, they will seek other venues. So how can we work, in your opinion, to extend those agreements?</t>
   </si>
   <si>
@@ -253,6 +289,12 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. Chairman King, Ranking Member Higgins, I want to thank you all for this, putting on this hearing. It is one of the more illuminating hearings I have been to this year.    My first question is to Ms. Lehr. Can you--you mentioned that organized plunder by ISIS, you said it is generating $1 million a year or $5 million a year?</t>
   </si>
   <si>
@@ -260,6 +302,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Yeah, I saw.</t>
+  </si>
+  <si>
+    <t>Lehr [contiuing]</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lehr [contiuing]. Into the record to show the process. Receipts for 3 months were $1.5 million.</t>
@@ -647,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,7 +700,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,1877 +722,2208 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s">
+        <v>53</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22761.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22761.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400219</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Higgins</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
   </si>
   <si>
     <t>412649</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Katko</t>
@@ -692,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +712,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,2205 +737,2380 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>96</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G76" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
